--- a/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Filassier/Jean-Jacques_Filassier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Filassier/Jean-Jacques_Filassier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Filassier, né à Wervicq-Sud (France) le 16 mai 1745 et mort à Clamart le 22 juillet 1799, est un agronome et homme politique français.
 Enthousiaste des écrits de Jean-Jacques Rousseau, il rédigea plusieurs ouvrages sur l'éducation. Il fut membre des académies d'Arras, de Lyon, de Marseille et de Toulouse. Agronome, il dirigea la pépinière de Clamart.
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Propos révolutionnaires
 « Législateurs, il est temps de regarder en face l'idole devant laquelle nous rampions dans la poussière; il est temps de faire cesser dans l'État cette redoutable corporation de tartufes, de prêtres gangrenés, que l'Assemblée constituante voulut en vain organiser, que l'Assemblée législative ne put contenir, et dont beaucoup ne feignent aujourd'hui de chanter les palinodies que parce qu'ils sont poursuivis par la terreur de leurs forfaits. Ah! si vous vouliez aussi les ménager, n'en doutez pas, bientôt ils reviendraient avides, vindicatifs et barbares, en recouvrant sur la crédulité leur antique ascendant! »
@@ -551,7 +565,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marie-Nicolas Bouillet  et Alexis Chassang (dir.), « Jean-Jacques Filassier » dans Dictionnaire universel d’histoire et de géographie, 1878 (lire sur Wikisource)
 Directeur de publication Louis-Gabriel Michaud; une société de gens de lettres et de savants, Biographie universelle ancienne et moderne, vol. XIV : Ferraro-Francquaert / publ. sous la dir. de M. Michaud ; ouvrage réd. par une société de gens de lettres et de savants, Paris, Madame C. Desplaces (réimpr. 1856), 691 p. (lire en ligne), p. 121-122</t>
